--- a/datas/v5系列/v5花后/v5花后排表.xlsx
+++ b/datas/v5系列/v5花后/v5花后排表.xlsx
@@ -29,12 +29,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0F8FF"/>
+        <bgColor rgb="00F0F8FF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,9 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -428,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +456,10 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -505,6 +518,26 @@
           <t>10</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -547,21 +580,13 @@
           <t>ZYUI</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>ZYUI</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>ZYUI</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>ZYUI</t>
-        </is>
-      </c>
+      <c r="I2" s="3" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr"/>
+      <c r="K2" s="3" t="inlineStr"/>
+      <c r="L2" s="3" t="inlineStr"/>
+      <c r="M2" s="3" t="inlineStr"/>
+      <c r="N2" s="3" t="inlineStr"/>
+      <c r="O2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -571,54 +596,66 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
+          <t>团长</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>时岚</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>ei</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>时岚jp</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>我才不会歪</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>我才不会歪</t>
         </is>
       </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>&gt;&lt;</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr"/>
+      <c r="O3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -656,26 +693,14 @@
           <t>管理</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>管理</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>管理</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>管理</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>管理</t>
-        </is>
-      </c>
+      <c r="H4" s="3" t="inlineStr"/>
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr"/>
+      <c r="K4" s="3" t="inlineStr"/>
+      <c r="L4" s="3" t="inlineStr"/>
+      <c r="M4" s="3" t="inlineStr"/>
+      <c r="N4" s="3" t="inlineStr"/>
+      <c r="O4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -733,6 +758,14 @@
           <t>常世</t>
         </is>
       </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>常世</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr"/>
+      <c r="O5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -752,44 +785,56 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>时岚</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>时岚</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
       </c>
+      <c r="N6" s="3" t="inlineStr"/>
+      <c r="O6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -837,16 +882,12 @@
           <t>Ccy</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>Ccy</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>Ccy</t>
-        </is>
-      </c>
+      <c r="J7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr"/>
+      <c r="N7" s="3" t="inlineStr"/>
+      <c r="O7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -904,6 +945,10 @@
           <t>轩衍</t>
         </is>
       </c>
+      <c r="L8" s="3" t="inlineStr"/>
+      <c r="M8" s="3" t="inlineStr"/>
+      <c r="N8" s="3" t="inlineStr"/>
+      <c r="O8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -961,6 +1006,14 @@
           <t>团长</t>
         </is>
       </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>南山</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1013,11 +1066,11 @@
           <t>洛洛</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>ei</t>
-        </is>
-      </c>
+      <c r="K10" s="3" t="inlineStr"/>
+      <c r="L10" s="3" t="inlineStr"/>
+      <c r="M10" s="3" t="inlineStr"/>
+      <c r="N10" s="3" t="inlineStr"/>
+      <c r="O10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1075,6 +1128,14 @@
           <t>阿兰</t>
         </is>
       </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>阿兰</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr"/>
+      <c r="N11" s="3" t="inlineStr"/>
+      <c r="O11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1132,6 +1193,10 @@
           <t>劲爆</t>
         </is>
       </c>
+      <c r="L12" s="3" t="inlineStr"/>
+      <c r="M12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="inlineStr"/>
+      <c r="O12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1156,7 +1221,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>团长</t>
+          <t>葱郁</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1171,12 +1236,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>葱郁</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>影藤</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1184,11 +1249,11 @@
           <t>影藤</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>影藤</t>
-        </is>
-      </c>
+      <c r="K13" s="3" t="inlineStr"/>
+      <c r="L13" s="3" t="inlineStr"/>
+      <c r="M13" s="3" t="inlineStr"/>
+      <c r="N13" s="3" t="inlineStr"/>
+      <c r="O13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1246,6 +1311,14 @@
           <t>我才不会歪</t>
         </is>
       </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>&gt;&lt;</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1295,10 +1368,30 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>影藤</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="O15" s="2" t="inlineStr">
         <is>
           <t>影藤</t>
         </is>
@@ -1352,14 +1445,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>toto</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>Sunflower</t>
         </is>
       </c>
+      <c r="M16" s="3" t="inlineStr"/>
+      <c r="N16" s="3" t="inlineStr"/>
+      <c r="O16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1369,54 +1470,54 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
+          <t>啊吧啊吧</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>啊吧啊吧</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>啊吧啊吧</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>啊吧啊吧</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>Sunflower</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>Sunflower</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>Sunflower</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>Sunflower</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>Sunflower</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>啊吧啊吧</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>啊吧啊吧</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>啊吧啊吧</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>啊吧啊吧</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>啊吧啊吧</t>
-        </is>
-      </c>
+      <c r="K17" s="3" t="inlineStr"/>
+      <c r="L17" s="3" t="inlineStr"/>
+      <c r="M17" s="3" t="inlineStr"/>
+      <c r="N17" s="3" t="inlineStr"/>
+      <c r="O17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1474,6 +1575,14 @@
           <t>薯条</t>
         </is>
       </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>薯条</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="inlineStr"/>
+      <c r="N18" s="3" t="inlineStr"/>
+      <c r="O18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1526,11 +1635,11 @@
           <t>管理</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>管理</t>
-        </is>
-      </c>
+      <c r="K19" s="3" t="inlineStr"/>
+      <c r="L19" s="3" t="inlineStr"/>
+      <c r="M19" s="3" t="inlineStr"/>
+      <c r="N19" s="3" t="inlineStr"/>
+      <c r="O19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1545,49 +1654,57 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>睡觉</t>
+          <t>小米粥</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>睡觉</t>
+          <t>小米粥</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>睡觉</t>
+          <t>小米粥</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>睡觉</t>
+          <t>小米粥</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>睡觉</t>
+          <t>&gt;&lt;</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>小米粥</t>
+          <t>&gt;&lt;</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>小米粥</t>
+          <t>&gt;&lt;</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>小米粥</t>
+          <t>&gt;&lt;</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>小米粥</t>
-        </is>
-      </c>
+          <t>&gt;&lt;</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>&gt;&lt;</t>
+        </is>
+      </c>
+      <c r="M20" s="3" t="inlineStr"/>
+      <c r="N20" s="3" t="inlineStr"/>
+      <c r="O20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1602,22 +1719,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>ZYUI</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>ZYUI</t>
+          <t>睡觉</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>ZYUI</t>
+          <t>睡觉</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>睡觉</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1627,24 +1744,16 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>睡觉</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>睡觉</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>睡觉</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>睡觉</t>
-        </is>
-      </c>
+          <t>&gt;&lt;</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr"/>
+      <c r="J21" s="3" t="inlineStr"/>
+      <c r="K21" s="3" t="inlineStr"/>
+      <c r="L21" s="3" t="inlineStr"/>
+      <c r="M21" s="3" t="inlineStr"/>
+      <c r="N21" s="3" t="inlineStr"/>
+      <c r="O21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1699,9 +1808,17 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
+          <t>馅圈</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
           <t>Ecuador</t>
         </is>
       </c>
+      <c r="M22" s="3" t="inlineStr"/>
+      <c r="N22" s="3" t="inlineStr"/>
+      <c r="O22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1759,6 +1876,10 @@
           <t>草虎</t>
         </is>
       </c>
+      <c r="L23" s="3" t="inlineStr"/>
+      <c r="M23" s="3" t="inlineStr"/>
+      <c r="N23" s="3" t="inlineStr"/>
+      <c r="O23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1816,6 +1937,10 @@
           <t>管理</t>
         </is>
       </c>
+      <c r="L24" s="3" t="inlineStr"/>
+      <c r="M24" s="3" t="inlineStr"/>
+      <c r="N24" s="3" t="inlineStr"/>
+      <c r="O24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1873,6 +1998,10 @@
           <t>管理</t>
         </is>
       </c>
+      <c r="L25" s="3" t="inlineStr"/>
+      <c r="M25" s="3" t="inlineStr"/>
+      <c r="N25" s="3" t="inlineStr"/>
+      <c r="O25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1892,44 +2021,60 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>明以</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>跳针</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>跳针</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>跳针</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>跳针</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>跳针</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>跳针</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>跳针</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>跳针</t>
         </is>
       </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>跳针</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>跳针</t>
+        </is>
+      </c>
+      <c r="O26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1987,6 +2132,10 @@
           <t>尔浦</t>
         </is>
       </c>
+      <c r="L27" s="3" t="inlineStr"/>
+      <c r="M27" s="3" t="inlineStr"/>
+      <c r="N27" s="3" t="inlineStr"/>
+      <c r="O27" s="3" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -2044,6 +2193,10 @@
           <t>果丹皮</t>
         </is>
       </c>
+      <c r="L28" s="3" t="inlineStr"/>
+      <c r="M28" s="3" t="inlineStr"/>
+      <c r="N28" s="3" t="inlineStr"/>
+      <c r="O28" s="3" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2096,11 +2249,11 @@
           <t>葱郁</t>
         </is>
       </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>葱郁</t>
-        </is>
-      </c>
+      <c r="K29" s="3" t="inlineStr"/>
+      <c r="L29" s="3" t="inlineStr"/>
+      <c r="M29" s="3" t="inlineStr"/>
+      <c r="N29" s="3" t="inlineStr"/>
+      <c r="O29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2158,6 +2311,14 @@
           <t>管理*</t>
         </is>
       </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>管理*</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr"/>
+      <c r="N30" s="3" t="inlineStr"/>
+      <c r="O30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2215,6 +2376,14 @@
           <t>易懿</t>
         </is>
       </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>易懿</t>
+        </is>
+      </c>
+      <c r="M31" s="3" t="inlineStr"/>
+      <c r="N31" s="3" t="inlineStr"/>
+      <c r="O31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2272,6 +2441,14 @@
           <t>南山</t>
         </is>
       </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>Sunflower</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="inlineStr"/>
+      <c r="N32" s="3" t="inlineStr"/>
+      <c r="O32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2329,6 +2506,10 @@
           <t>canvas</t>
         </is>
       </c>
+      <c r="L33" s="3" t="inlineStr"/>
+      <c r="M33" s="3" t="inlineStr"/>
+      <c r="N33" s="3" t="inlineStr"/>
+      <c r="O33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2386,6 +2567,14 @@
           <t>尔浦</t>
         </is>
       </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>尔浦</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2443,6 +2632,18 @@
           <t>南山</t>
         </is>
       </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>南山</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>南山</t>
+        </is>
+      </c>
+      <c r="N35" s="3" t="inlineStr"/>
+      <c r="O35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2500,6 +2701,18 @@
           <t>葱郁</t>
         </is>
       </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>&gt;&lt;</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>&gt;&lt;</t>
+        </is>
+      </c>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2534,29 +2747,33 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
+          <t>时岚</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>时岚</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
           <t>鸣屿</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr">
+      <c r="J37" s="2" t="inlineStr">
         <is>
           <t>鸣屿</t>
         </is>
       </c>
-      <c r="I37" s="2" t="inlineStr">
+      <c r="K37" s="2" t="inlineStr">
         <is>
           <t>鸣屿</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>时岚jp</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>时岚jp</t>
-        </is>
-      </c>
+      <c r="L37" s="3" t="inlineStr"/>
+      <c r="M37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr"/>
+      <c r="O37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2604,16 +2821,12 @@
           <t>Wyyy_x</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>Wyyy_x</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>Wyyy_x</t>
-        </is>
-      </c>
+      <c r="J38" s="3" t="inlineStr"/>
+      <c r="K38" s="3" t="inlineStr"/>
+      <c r="L38" s="3" t="inlineStr"/>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr"/>
+      <c r="O38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2638,17 +2851,17 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>时岚</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>轩衍</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>轩衍</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2656,21 +2869,13 @@
           <t>轩衍</t>
         </is>
       </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>轩衍</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>轩衍</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>时岚jp</t>
-        </is>
-      </c>
+      <c r="I39" s="3" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr"/>
+      <c r="K39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="inlineStr"/>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr"/>
+      <c r="O39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2728,6 +2933,14 @@
           <t>啸</t>
         </is>
       </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>啸</t>
+        </is>
+      </c>
+      <c r="M40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="inlineStr"/>
+      <c r="O40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2785,6 +2998,10 @@
           <t>我才不会歪</t>
         </is>
       </c>
+      <c r="L41" s="3" t="inlineStr"/>
+      <c r="M41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="inlineStr"/>
+      <c r="O41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2842,6 +3059,10 @@
           <t>Ecuador</t>
         </is>
       </c>
+      <c r="L42" s="3" t="inlineStr"/>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr"/>
+      <c r="O42" s="3" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2881,24 +3102,20 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>琳琅瑶</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>琳琅瑶</t>
-        </is>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2956,6 +3173,14 @@
           <t>洛洛</t>
         </is>
       </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>&gt;&lt;</t>
+        </is>
+      </c>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3013,6 +3238,10 @@
           <t>管理*</t>
         </is>
       </c>
+      <c r="L45" s="3" t="inlineStr"/>
+      <c r="M45" s="3" t="inlineStr"/>
+      <c r="N45" s="3" t="inlineStr"/>
+      <c r="O45" s="3" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -3070,6 +3299,10 @@
           <t>Ecuador</t>
         </is>
       </c>
+      <c r="L46" s="3" t="inlineStr"/>
+      <c r="M46" s="3" t="inlineStr"/>
+      <c r="N46" s="3" t="inlineStr"/>
+      <c r="O46" s="3" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3099,12 +3332,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>阿羊</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>阿羊</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3117,16 +3350,12 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
+      <c r="J47" s="3" t="inlineStr"/>
+      <c r="K47" s="3" t="inlineStr"/>
+      <c r="L47" s="3" t="inlineStr"/>
+      <c r="M47" s="3" t="inlineStr"/>
+      <c r="N47" s="3" t="inlineStr"/>
+      <c r="O47" s="3" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3161,29 +3390,33 @@
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>睡觉</t>
+          <t>&gt;&lt;</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>睡觉</t>
+          <t>&gt;&lt;</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>睡觉</t>
+          <t>&gt;&lt;</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>睡觉</t>
+          <t>&gt;&lt;</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>睡觉</t>
-        </is>
-      </c>
+          <t>&gt;&lt;</t>
+        </is>
+      </c>
+      <c r="L48" s="3" t="inlineStr"/>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr"/>
+      <c r="O48" s="3" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3226,21 +3459,13 @@
           <t>睡觉</t>
         </is>
       </c>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>睡觉</t>
-        </is>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>睡觉</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>睡觉</t>
-        </is>
-      </c>
+      <c r="I49" s="3" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr"/>
+      <c r="L49" s="3" t="inlineStr"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
